--- a/cactus_finch_worked.xlsx
+++ b/cactus_finch_worked.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="cactus_finch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>age (x)</t>
   </si>
@@ -40,6 +40,42 @@
   </si>
   <si>
     <t>lxbxx</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Number of deaths from x to x+1 (D)</t>
+  </si>
+  <si>
+    <t>cohort years lived</t>
+  </si>
+  <si>
+    <t>LE(0)</t>
+  </si>
+  <si>
+    <t>R(0)</t>
+  </si>
+  <si>
+    <t>life expectancy</t>
+  </si>
+  <si>
+    <t>rate of growth</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>exp(r*x)/lx</t>
+  </si>
+  <si>
+    <t>exp(-ry)*lyby</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -523,8 +559,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -846,45 +885,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" customWidth="1"/>
+    <col min="2" max="6" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -892,26 +946,46 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <f>B2-B3</f>
+        <v>488</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <f>B2/$B$2</f>
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>B3/B2</f>
         <v>0.51200000000000001</v>
       </c>
-      <c r="F2">
-        <f>D2*C2</f>
-        <v>0</v>
-      </c>
       <c r="G2">
-        <f>D2*C2*A2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E2*D2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>E2*D2*A2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>B3+0.5*C2</f>
+        <v>756</v>
+      </c>
+      <c r="J2">
+        <f>EXP($B$19*A2)/E2</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>EXP(-$B$19*A2)*G2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>J2*SUM(K3:$K$15)</f>
+        <v>1.0771122351299227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -919,26 +993,46 @@
         <v>512</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C14" si="0">B3-B4</f>
+        <v>233</v>
+      </c>
+      <c r="D3">
         <v>0.36399999999999999</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D15" si="0">B3/$B$2</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="1">B3/$B$2</f>
         <v>0.51200000000000001</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E15" si="1">B4/B3</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F14" si="2">B4/B3</f>
         <v>0.544921875</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F15" si="2">D3*C3</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="3">E3*D3</f>
         <v>0.18636800000000001</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G15" si="3">D3*C3*A3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H15" si="4">E3*D3*A3</f>
         <v>0.18636800000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I15" si="5">B4+0.5*C3</f>
+        <v>395.5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J15" si="6">EXP($B$19*A3)/E3</f>
+        <v>2.2071956614641279</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K15" si="7">EXP(-$B$19*A3)*G3</f>
+        <v>0.16491514837363494</v>
+      </c>
+      <c r="L3">
+        <f>J3*SUM(K4:$K$15)</f>
+        <v>2.0133974522886948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -946,26 +1040,46 @@
         <v>279</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0.187</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.27900000000000003</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>5.2173000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
+        <v>5.2173000000000004E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
         <v>0.10434600000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>B5+0.5*C4</f>
+        <v>279</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="6"/>
+        <v>4.5773844117541937</v>
+      </c>
+      <c r="K4">
+        <f>EXP(-$B$19*A4)*G4</f>
+        <v>4.08530250419444E-2</v>
+      </c>
+      <c r="L4">
+        <f>J4*SUM(K5:$K$15)</f>
+        <v>3.9884767253658198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -973,26 +1087,46 @@
         <v>279</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D5">
         <v>1.4379999999999999</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.27900000000000003</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.74910394265232971</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.401202</v>
+        <v>0.74910394265232971</v>
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
+        <v>0.401202</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
         <v>1.203606</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>244</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>5.1728297034124218</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>0.27799098026586444</v>
+      </c>
+      <c r="L5">
+        <f>J5*SUM(K6:$K$15)</f>
+        <v>3.0693144443279818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1000,26 +1134,46 @@
         <v>209</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.83299999999999996</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.20899999999999999</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.17409699999999997</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
+        <v>0.17409699999999997</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
         <v>0.6963879999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>209</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>7.8036340138337819</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="7"/>
+        <v>0.10674513931884952</v>
+      </c>
+      <c r="L6">
+        <f>J6*SUM(K7:$K$15)</f>
+        <v>3.7973102886044372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1027,26 +1181,46 @@
         <v>209</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.20899999999999999</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>E7*D7</f>
         <v>0.1045</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
+      <c r="H7">
+        <f t="shared" si="4"/>
         <v>0.52249999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>209</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>8.8187633351617656</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="7"/>
+        <v>5.6697292012183063E-2</v>
+      </c>
+      <c r="L7">
+        <f>J7*SUM(K8:$K$15)</f>
+        <v>3.7912802786512949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1054,26 +1228,46 @@
         <v>209</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.83299999999999996</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.20899999999999999</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.17409699999999997</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
+        <v>0.17409699999999997</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
         <v>1.0445819999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>209</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>9.9659449204981634</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="7"/>
+        <v>8.3584648183903598E-2</v>
+      </c>
+      <c r="L8">
+        <f>J8*SUM(K9:$K$15)</f>
+        <v>3.4514658598060284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1081,26 +1275,46 @@
         <v>209</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0.25</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.20899999999999999</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>5.2249999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
+        <v>5.2249999999999998E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
         <v>0.36574999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>209</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>11.262356680147972</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="7"/>
+        <v>2.2197840745061127E-2</v>
+      </c>
+      <c r="L9">
+        <f>J9*SUM(K10:$K$15)</f>
+        <v>3.6504469613851755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1108,26 +1322,46 @@
         <v>209</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D10">
         <v>3.3330000000000002</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.20899999999999999</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.66507177033492826</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.69659700000000002</v>
+        <v>0.66507177033492826</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
+        <v>0.69659700000000002</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
         <v>5.5727760000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>12.72741109876948</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>0.26187572430360512</v>
+      </c>
+      <c r="L10">
+        <f>J10*SUM(K11:$K$15)</f>
+        <v>0.79231235613402462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1135,26 +1369,46 @@
         <v>139</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D11">
         <v>0.125</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.13900000000000001</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.50359712230215825</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>1.7375000000000002E-2</v>
+        <v>0.50359712230215825</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
+        <v>1.7375000000000002E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
         <v>0.15637500000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>B12+0.5*C11</f>
+        <v>104.5</v>
+      </c>
+      <c r="J11">
+        <f>EXP($B$19*A11)/E11</f>
+        <v>21.62630645246065</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="7"/>
+        <v>5.7799976281098829E-3</v>
+      </c>
+      <c r="L11">
+        <f>J11*SUM(K12:$K$15)</f>
+        <v>1.2212902774848053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1162,26 +1416,46 @@
         <v>70</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>48.529957147616614</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>J12*SUM(K13:$K$15)</f>
+        <v>2.7406050571522695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1189,26 +1463,46 @@
         <v>70</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>54.842936764036835</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>J13*SUM(K14:$K$15)</f>
+        <v>3.0971144150697665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1216,43 +1510,130 @@
         <v>70</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D14">
         <v>3.5</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.24500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
+        <v>0.24500000000000002</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
         <v>2.9400000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>61.977135148817219</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>5.6472439256766684E-2</v>
+      </c>
+      <c r="L14">
+        <f>J14*SUM(K15:$K$15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
+      <c r="C15">
+        <f>B15-B16</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <f>SUM(G2:G15)</f>
+        <v>2.1036589999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <f>SUM(H2:H15)/SUM(G2:G15)</f>
+        <v>6.0811619183527377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <f>LN(B17)/B18</f>
+        <v>0.1222921243475851</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <f>SUM(I2:I15)/B2</f>
+        <v>2.964</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <f>EXP(B19)</f>
+        <v>1.1300841786696336</v>
       </c>
     </row>
   </sheetData>
